--- a/Overall Stats/Jensen/Jensen Report.xlsx
+++ b/Overall Stats/Jensen/Jensen Report.xlsx
@@ -1,40 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\2019\Jensen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Jensen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A265C47-3373-4CAA-908F-EAB8751380EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AAFF88-C160-4442-8888-00FF0F8CFD45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="1410" windowWidth="15375" windowHeight="7875" activeTab="2" xr2:uid="{DAB65968-18A3-4890-8627-82F8B8492183}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{DAB65968-18A3-4890-8627-82F8B8492183}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
     <sheet name="2018" sheetId="1" r:id="rId2"/>
     <sheet name="2019" sheetId="4" r:id="rId3"/>
-    <sheet name="Overall Stats" sheetId="3" r:id="rId4"/>
+    <sheet name="2020" sheetId="5" r:id="rId4"/>
+    <sheet name="Overall Stats" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="35">
   <si>
     <t>Lake/Pond</t>
   </si>
@@ -118,6 +113,27 @@
   </si>
   <si>
     <t>12 Rainbow</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>Fishing Report 2020 Jensen</t>
+  </si>
+  <si>
+    <t>5 Rainbow</t>
+  </si>
+  <si>
+    <t>16 Rainbow</t>
+  </si>
+  <si>
+    <t>20 Rainbow</t>
+  </si>
+  <si>
+    <t>14 Rainbow</t>
+  </si>
+  <si>
+    <t>21 Rainbow</t>
   </si>
 </sst>
 </file>
@@ -256,7 +272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -303,6 +319,9 @@
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -573,7 +592,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -962,10 +981,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>23.076923076923077</c:v>
+                  <c:v>7.8260869565217401</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76.923076923076934</c:v>
+                  <c:v>92.173913043478265</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2611,12 +2630,12 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
@@ -2657,12 +2676,12 @@
         <f>SUM(C4)</f>
         <v>1</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -2738,12 +2757,12 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -2784,12 +2803,12 @@
         <f>SUM(C4)</f>
         <v>9</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -2836,8 +2855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{993163A3-77D4-497A-ACDE-EFF880010B36}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2864,23 +2883,23 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
@@ -2945,12 +2964,12 @@
       <c r="F5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
@@ -3095,11 +3114,249 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD93082E-403C-4400-B848-43187CA55B89}">
+  <dimension ref="A1:M12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+    </row>
+    <row r="3" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="5">
+        <v>76</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5">
+        <v>25</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5">
+        <v>14</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="5">
+        <f>SUM(F4/D9*100)</f>
+        <v>100</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5">
+        <v>21</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="8">
+        <f>SUM(D4:D8)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="19">
+        <f>AVERAGE(D4:D8)</f>
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F5:I5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B4AEE1-C76E-4341-A5D5-87F4B0EF364F}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3109,12 +3366,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -3130,19 +3387,19 @@
         <v>9</v>
       </c>
       <c r="B3" s="5">
-        <f>SUM('2017'!E4+'2019'!G4)</f>
-        <v>30</v>
+        <f>SUM('2017'!E4+'2019'!G4+'2020'!F4)</f>
+        <v>106</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -3155,11 +3412,11 @@
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <f>SUM(A3/$B$8*100)</f>
-        <v>23.076923076923077</v>
+        <v>7.8260869565217401</v>
       </c>
       <c r="B6" s="21">
         <f>SUM(B3/$B$8*100)</f>
-        <v>76.923076923076934</v>
+        <v>92.173913043478265</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3167,8 +3424,8 @@
         <v>8</v>
       </c>
       <c r="B8" s="7">
-        <f>SUM('2017'!C5+'2018'!C5+'2019'!E10)</f>
-        <v>39</v>
+        <f>SUM('2017'!C5+'2018'!C5+'2019'!E10+'2020'!D9)</f>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3176,8 +3433,8 @@
         <v>9</v>
       </c>
       <c r="B9" s="7">
-        <f>SUM('2017'!C6+'2018'!C6+'2019'!E11)</f>
-        <v>8</v>
+        <f>SUM('2017'!C6+'2018'!C6+'2019'!E11+'2020'!D10)</f>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3186,7 +3443,7 @@
       </c>
       <c r="B10" s="20">
         <f>SUM(B8/B9)</f>
-        <v>4.875</v>
+        <v>8.8461538461538467</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">

--- a/Overall Stats/Jensen/Jensen Report.xlsx
+++ b/Overall Stats/Jensen/Jensen Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Jensen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AAFF88-C160-4442-8888-00FF0F8CFD45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5070E4B2-20EC-4544-A263-AF273B8873CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{DAB65968-18A3-4890-8627-82F8B8492183}"/>
   </bookViews>
@@ -140,7 +140,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +221,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFC000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -272,7 +279,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -331,6 +338,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3337,8 +3347,8 @@
         <v>18</v>
       </c>
       <c r="C12" s="18"/>
-      <c r="D12" s="13" t="s">
-        <v>19</v>
+      <c r="D12" s="26" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Overall Stats/Jensen/Jensen Report.xlsx
+++ b/Overall Stats/Jensen/Jensen Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Jensen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5070E4B2-20EC-4544-A263-AF273B8873CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F86587D-02F1-4412-B41A-42C7E55219EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{DAB65968-18A3-4890-8627-82F8B8492183}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{DAB65968-18A3-4890-8627-82F8B8492183}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
@@ -331,6 +331,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -338,9 +341,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2640,12 +2640,12 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
@@ -2686,12 +2686,12 @@
         <f>SUM(C4)</f>
         <v>1</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -2767,12 +2767,12 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -2813,12 +2813,12 @@
         <f>SUM(C4)</f>
         <v>9</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -2893,23 +2893,23 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
@@ -2974,12 +2974,12 @@
       <c r="F5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
@@ -3127,7 +3127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD93082E-403C-4400-B848-43187CA55B89}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -3156,22 +3156,22 @@
       <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
@@ -3234,12 +3234,12 @@
       <c r="E5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -3347,7 +3347,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="18"/>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="23" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3365,7 +3365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B4AEE1-C76E-4341-A5D5-87F4B0EF364F}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -3376,12 +3376,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -3404,12 +3404,12 @@
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">

--- a/Overall Stats/Jensen/Jensen Report.xlsx
+++ b/Overall Stats/Jensen/Jensen Report.xlsx
@@ -1,35 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Jensen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F86587D-02F1-4412-B41A-42C7E55219EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30256A0E-2536-406F-8D1F-7B62BC0E198F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{DAB65968-18A3-4890-8627-82F8B8492183}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{DAB65968-18A3-4890-8627-82F8B8492183}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
     <sheet name="2018" sheetId="1" r:id="rId2"/>
     <sheet name="2019" sheetId="4" r:id="rId3"/>
     <sheet name="2020" sheetId="5" r:id="rId4"/>
-    <sheet name="Overall Stats" sheetId="3" r:id="rId5"/>
+    <sheet name="2021" sheetId="6" r:id="rId5"/>
+    <sheet name="Overall Stats" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="39">
   <si>
     <t>Lake/Pond</t>
   </si>
@@ -134,6 +142,18 @@
   </si>
   <si>
     <t>21 Rainbow</t>
+  </si>
+  <si>
+    <t>24 Rainbow</t>
+  </si>
+  <si>
+    <t>25 Rainbow</t>
+  </si>
+  <si>
+    <t>33 Rainbow</t>
+  </si>
+  <si>
+    <t>Fishing Report 2021 Jensen</t>
   </si>
 </sst>
 </file>
@@ -279,7 +299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -334,6 +354,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -341,6 +364,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -602,7 +631,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>106</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -991,10 +1020,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>7.8260869565217401</c:v>
+                  <c:v>4.0723981900452486</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>92.173913043478265</c:v>
+                  <c:v>95.927601809954751</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2640,12 +2669,12 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
@@ -2686,12 +2715,12 @@
         <f>SUM(C4)</f>
         <v>1</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -2767,12 +2796,12 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -2813,12 +2842,12 @@
         <f>SUM(C4)</f>
         <v>9</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -2893,23 +2922,23 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
@@ -2974,12 +3003,12 @@
       <c r="F5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
@@ -3128,7 +3157,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="F2" sqref="F2:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3156,22 +3185,22 @@
       <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
@@ -3234,12 +3263,12 @@
       <c r="E5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -3362,10 +3391,198 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D9D170-EF37-484F-AFD5-B3A06FF2D038}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="28"/>
+    </row>
+    <row r="2" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5">
+        <v>21</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5">
+        <v>24</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="5">
+        <v>106</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5">
+        <v>25</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5">
+        <v>25</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5">
+        <v>28</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="5">
+        <v>24</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5">
+        <v>18</v>
+      </c>
+      <c r="D7" s="5">
+        <v>33</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="5">
+        <f>SUM(F4/D8*100)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="8">
+        <f>SUM(D4:D7)</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="19">
+        <f>AVERAGE(D3:D7)</f>
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F5:I5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B4AEE1-C76E-4341-A5D5-87F4B0EF364F}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -3376,12 +3593,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -3397,19 +3614,19 @@
         <v>9</v>
       </c>
       <c r="B3" s="5">
-        <f>SUM('2017'!E4+'2019'!G4+'2020'!F4)</f>
-        <v>106</v>
+        <f>SUM('2017'!E4+'2019'!G4+'2020'!F4+'2021'!D8)</f>
+        <v>212</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -3422,11 +3639,11 @@
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <f>SUM(A3/$B$8*100)</f>
-        <v>7.8260869565217401</v>
+        <v>4.0723981900452486</v>
       </c>
       <c r="B6" s="21">
         <f>SUM(B3/$B$8*100)</f>
-        <v>92.173913043478265</v>
+        <v>95.927601809954751</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3434,8 +3651,8 @@
         <v>8</v>
       </c>
       <c r="B8" s="7">
-        <f>SUM('2017'!C5+'2018'!C5+'2019'!E10+'2020'!D9)</f>
-        <v>115</v>
+        <f>SUM('2017'!C5+'2018'!C5+'2019'!E10+'2020'!D9+'2021'!D8)</f>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3443,8 +3660,8 @@
         <v>9</v>
       </c>
       <c r="B9" s="7">
-        <f>SUM('2017'!C6+'2018'!C6+'2019'!E11+'2020'!D10)</f>
-        <v>13</v>
+        <f>SUM('2017'!C6+'2018'!C6+'2019'!E11+'2020'!D10+'2021'!D9)</f>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3453,7 +3670,7 @@
       </c>
       <c r="B10" s="20">
         <f>SUM(B8/B9)</f>
-        <v>8.8461538461538467</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
